--- a/reverseprimer-v3_19.xlsx
+++ b/reverseprimer-v3_19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_19" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1729-CTTGCTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGCTGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1729-ACAGGATGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGGATGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1730-AAGCAGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCAGATCCGTCTCGTGGGCTCGG</t>
+    <t>R1730-TACCACTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCACTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1731-ACAAGGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGGATGAGTCTCGTGGGCTCGG</t>
+    <t>R1731-CACATCTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACATCTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1732-AGAACACTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACACTTCGTCTCGTGGGCTCGG</t>
+    <t>R1732-AACCACTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCACTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1733-CAAGCAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGCAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R1733-AAGGTCTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1734-TCTGTCATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCATCCGTCTCGTGGGCTCGG</t>
+    <t>R1734-AGACGAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACGAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1735-TGCTGAACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTGAACGTGTCTCGTGGGCTCGG</t>
+    <t>R1735-GTTCCATCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCCATCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1736-GATCCAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCAGTAGGTCTCGTGGGCTCGG</t>
+    <t>R1736-ATGTGGACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTGGACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1737-ATCGATGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGATGGATGTCTCGTGGGCTCGG</t>
+    <t>R1737-ATGCACTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCACTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1738-TCTCCAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCCAGTGTGTCTCGTGGGCTCGG</t>
+    <t>R1738-CTACAACCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACAACCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1739-AACGTGACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTGACATGTCTCGTGGGCTCGG</t>
+    <t>R1739-CGATGGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATGGAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1740-GAACACGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACACGACTGTCTCGTGGGCTCGG</t>
+    <t>R1740-GATGCTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCTGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1741-AGAGAAGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAAGACGGTCTCGTGGGCTCGG</t>
+    <t>R1741-GTACCATGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACCATGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1742-TGTGCAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGCAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R1742-TGTGTGAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTGAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R1743-TAGGAGCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGAGCACTGTCTCGTGGGCTCGG</t>
+    <t>R1743-AGAACGAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACGAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R1744-ACTACTCTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACTCTCGGTCTCGTGGGCTCGG</t>
+    <t>R1744-TCGAGAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAGAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R1745-GTGTAGTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTAGTTGCGTCTCGTGGGCTCGG</t>
+    <t>R1745-AACACATCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACATCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R1746-ATCCTGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTGACCTGTCTCGTGGGCTCGG</t>
+    <t>R1746-TTCTCCAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTCCAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R1747-AGCTCACTCA</t>
+    <t>R1747-GCTCGAACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCGAACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R1748-CCTGACAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGACAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R1749-GAGACTAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGACTAGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R1750-TGCATGTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCATGTCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R1751-AGCTCACTCA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATAGCTCACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R1748-ACCATCACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATCACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R1749-TCTACGTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACGTCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R1750-GTCAGAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAGAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R1751-GCTCTGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCTGTCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R1752-AAGTTGACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTTGACTCGTCTCGTGGGCTCGG</t>
+    <t>R1752-ACCTTCAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTTCAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R1753-TCACGACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACGACTACGTCTCGTGGGCTCGG</t>
+    <t>R1753-TCATCGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCGTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R1754-TGAGTTGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTTGGTAGTCTCGTGGGCTCGG</t>
+    <t>R1754-AGAACTGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACTGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R1755-CAAGTTGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTTGACAGTCTCGTGGGCTCGG</t>
+    <t>R1755-ATGCAGACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCAGACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R1756-GCAAGTTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTTGTGGTCTCGTGGGCTCGG</t>
+    <t>R1756-AAGAGTACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGTACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R1757-GCTGACTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGACTTCTGTCTCGTGGGCTCGG</t>
+    <t>R1757-TTCTTGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTTGACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R1758-CCAACGTCTT</t>
+    <t>R1758-GAGTAGTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTAGTCCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R1759-AGAGCATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGCATCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R1760-CCTTCGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCGTGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R1761-AGACCAACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACCAACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R1762-AAGTGAGGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGAGGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R1763-TCCAGCTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGCTGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R1764-ATCAACTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAACTTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R1765-CTCATGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCATGAGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R1766-TTGAGGTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGGTCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R1767-ATGTGAACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTGAACACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R1768-AACTTCGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTTCGACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R1769-ACCTCACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTCACACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R1770-CTCGATCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGATCATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R1771-CCAACGTCTT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATCCAACGTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R1759-ATGTTGCAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTTGCAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R1760-GTAGTGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTGATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R1761-CACGAGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACGAGAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R1762-CACCACTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACCACTTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R1763-GTGTTGGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTTGGACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R1764-GAGTCTTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTCTTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R1765-TGTGGATCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGGATCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R1766-CAAGTCAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTCAGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R1767-TGACAGAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAGAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R1768-TTGTCCTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCCTTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R1769-GATCATGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCATGATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R1770-GATGCTACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGCTACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R1771-CTTGTCTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGTCTTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R1772-CAGTGGTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTGGTCATGTCTCGTGGGCTCGG</t>
+    <t>R1772-GGTCTGTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCTGTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R1773-CAGATGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGATGATGCGTCTCGTGGGCTCGG</t>
+    <t>R1773-GTTCTCATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTCATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R1774-TTCTCCTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTCCTGCAGTCTCGTGGGCTCGG</t>
+    <t>R1774-TGATGCAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGCAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R1775-ACTCGATGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCGATGTAGTCTCGTGGGCTCGG</t>
+    <t>R1775-TAGTCCTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCCTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R1776-AACAACGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAACGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1776-TCACTACACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTACACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R1777-ATCAAGCTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAAGCTGCGTCTCGTGGGCTCGG</t>
+    <t>R1777-GTCACCTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACCTAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R1778-TGTACTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTACTCAACGTCTCGTGGGCTCGG</t>
+    <t>R1778-CTGCATCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCATCCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R1779-GAGTTGATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTTGATGGGTCTCGTGGGCTCGG</t>
+    <t>R1779-TGTTCACTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCACTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R1780-GACGTGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGTGTCTAGTCTCGTGGGCTCGG</t>
+    <t>R1780-CTAGTCTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGTCTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R1781-TAGTAGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTAGACACGTCTCGTGGGCTCGG</t>
+    <t>R1781-ATCGAGTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGAGTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R1782-ACATGCAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGCAACGGTCTCGTGGGCTCGG</t>
+    <t>R1782-TACTCTAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCTAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R1783-ACAACGTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACGTCACGTCTCGTGGGCTCGG</t>
+    <t>R1783-ACTTCCTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCCTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R1784-GACCATGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACCATGCATGTCTCGTGGGCTCGG</t>
+    <t>R1784-CAAGTACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTACAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R1785-GTACAAGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACAAGAGCGTCTCGTGGGCTCGG</t>
+    <t>R1785-AGCTTCAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTTCAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R1786-GGTGAGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGAGAAGAGTCTCGTGGGCTCGG</t>
+    <t>R1786-GTTGTGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R1787-AGGTCCTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCCTGTTGTCTCGTGGGCTCGG</t>
+    <t>R1787-GCAAGACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGACTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R1788-TCCTTCATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCATCGGTCTCGTGGGCTCGG</t>
+    <t>R1788-GTCATGGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCATGGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R1789-ACTCTAGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTAGCTCGTCTCGTGGGCTCGG</t>
+    <t>R1789-ACATCCTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCCTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R1790-TGGATGGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGATGGTCTGTCTCGTGGGCTCGG</t>
+    <t>R1790-ACATCACTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCACTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R1791-AAGACTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACTGAACGTCTCGTGGGCTCGG</t>
+    <t>R1791-TCATCTCGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCTCGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R1792-ACGACTGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGACTGAGAGTCTCGTGGGCTCGG</t>
+    <t>R1792-AGGATCGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATCGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R1793-TCGATCTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGATCTGCTGTCTCGTGGGCTCGG</t>
+    <t>R1793-TGACTTGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACTTGTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R1794-AACGATGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGATGACAGTCTCGTGGGCTCGG</t>
+    <t>R1794-TCAACTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACTGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R1795-TGGTGTACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTGTACTTGTCTCGTGGGCTCGG</t>
+    <t>R1795-GGTCAAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCAAGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R1796-CTAGCAACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGCAACAAGTCTCGTGGGCTCGG</t>
+    <t>R1796-TACGACCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGACCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R1797-TTCTTGACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTTGACTGGTCTCGTGGGCTCGG</t>
+    <t>R1797-CGTCCAAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCCAAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R1798-CTCTCAACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTCAACTAGTCTCGTGGGCTCGG</t>
+    <t>R1798-CAGCTCTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGCTCTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R1799-AGACGTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACGTCGTAGTCTCGTGGGCTCGG</t>
+    <t>R1799-GGACACTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGACACTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R1800-TCTGACACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGACACCTGTCTCGTGGGCTCGG</t>
+    <t>R1800-AACTCGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCGAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R1801-GACTAGTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTAGTAGGGTCTCGTGGGCTCGG</t>
+    <t>R1801-TACCTCTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTCTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R1802-TTCGTAGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTAGGATGTCTCGTGGGCTCGG</t>
+    <t>R1802-AACACGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R1803-CAAGACTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGACTCCTGTCTCGTGGGCTCGG</t>
+    <t>R1803-ACTGGTTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGGTTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R1804-TAGCTTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTTCTCTGTCTCGTGGGCTCGG</t>
+    <t>R1804-TAGAGTCGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGTCGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R1805-TCATGGTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGGTGTTGTCTCGTGGGCTCGG</t>
+    <t>R1805-AACAGAAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGAAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R1806-TGTAGGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGGTGATGTCTCGTGGGCTCGG</t>
+    <t>R1806-GTACTGCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTGCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R1807-CTACTCTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTCTCTCGTCTCGTGGGCTCGG</t>
+    <t>R1807-ACTCTAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R1808-AGACAAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACAAGAACGTCTCGTGGGCTCGG</t>
+    <t>R1808-ATGCAGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCAGTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R1809-AGATGGACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGGACTGGTCTCGTGGGCTCGG</t>
+    <t>R1809-TAGAAGGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAAGGACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R1810-TCGATGCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGATGCATCGTCTCGTGGGCTCGG</t>
+    <t>R1810-TACACGATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACGATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R1811-ACGTGTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTGTCAACGTCTCGTGGGCTCGG</t>
+    <t>R1811-CAAGAGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R1812-TGCTACAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTACAACCGTCTCGTGGGCTCGG</t>
+    <t>R1812-AGAGCTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R1813-GTACTAGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTAGACGGTCTCGTGGGCTCGG</t>
+    <t>R1813-GTCAGCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAGCAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R1814-TCAACGTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACGTCCAGTCTCGTGGGCTCGG</t>
+    <t>R1814-CCTTCACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R1815-TACCTGGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTGGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1815-AGTAGTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGTGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R1816-TCAACACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACACTTGGTCTCGTGGGCTCGG</t>
+    <t>R1816-TACGATCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGATCGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R1817-CGAACGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAACGAAGAGTCTCGTGGGCTCGG</t>
+    <t>R1817-GGTGAAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGAAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R1818-CCACTTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCACTTGGTTGTCTCGTGGGCTCGG</t>
+    <t>R1818-ACACATCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACATCGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R1819-CTACAACCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACAACCTGGTCTCGTGGGCTCGG</t>
+    <t>R1819-TCTCATGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCATGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R1820-CTGCATGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCATGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1820-GAGTGATCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGATCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R1821-AAGACCACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACCACATGTCTCGTGGGCTCGG</t>
+    <t>R1821-TTCAGCTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAGCTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R1822-TAGAACGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAACGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1822-TCTCTTGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTTGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1823-AGTCCTACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCCTACACGTCTCGTGGGCTCGG</t>
+    <t>R1823-CGTTGACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTGACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1824-TCACAAGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACAAGGAGGTCTCGTGGGCTCGG</t>
+    <t>R1824-GAACGACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGACGAAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
